--- a/testData/homeloan.xlsx
+++ b/testData/homeloan.xlsx
@@ -12,210 +12,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 94,619</t>
-  </si>
-  <si>
-    <t>₹ 2,82,461</t>
-  </si>
-  <si>
-    <t>₹ 34,375</t>
-  </si>
-  <si>
-    <t>₹ 4,11,455</t>
-  </si>
-  <si>
-    <t>₹ 25,15,361</t>
-  </si>
-  <si>
-    <t>3.63%</t>
+    <t>₹ 68,406</t>
+  </si>
+  <si>
+    <t>₹ 3,27,473</t>
+  </si>
+  <si>
+    <t>₹ 41,250</t>
+  </si>
+  <si>
+    <t>₹ 4,37,129</t>
+  </si>
+  <si>
+    <t>₹ 39,31,594</t>
+  </si>
+  <si>
+    <t>1.71%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 1,15,745</t>
-  </si>
-  <si>
-    <t>₹ 2,95,615</t>
-  </si>
-  <si>
-    <t>₹ 37,500</t>
-  </si>
-  <si>
-    <t>₹ 4,48,860</t>
-  </si>
-  <si>
-    <t>₹ 23,99,616</t>
-  </si>
-  <si>
-    <t>8.06%</t>
+    <t>₹ 81,325</t>
+  </si>
+  <si>
+    <t>₹ 3,50,543</t>
+  </si>
+  <si>
+    <t>₹ 45,000</t>
+  </si>
+  <si>
+    <t>₹ 4,76,868</t>
+  </si>
+  <si>
+    <t>₹ 38,50,268</t>
+  </si>
+  <si>
+    <t>3.74%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 1,30,425</t>
-  </si>
-  <si>
-    <t>₹ 2,80,935</t>
-  </si>
-  <si>
-    <t>₹ 22,69,192</t>
-  </si>
-  <si>
-    <t>13.06%</t>
+    <t>₹ 88,954</t>
+  </si>
+  <si>
+    <t>₹ 3,42,914</t>
+  </si>
+  <si>
+    <t>₹ 37,61,314</t>
+  </si>
+  <si>
+    <t>5.97%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 1,46,966</t>
-  </si>
-  <si>
-    <t>₹ 2,64,394</t>
-  </si>
-  <si>
-    <t>₹ 21,22,226</t>
-  </si>
-  <si>
-    <t>18.69%</t>
+    <t>₹ 97,299</t>
+  </si>
+  <si>
+    <t>₹ 3,34,570</t>
+  </si>
+  <si>
+    <t>₹ 36,64,015</t>
+  </si>
+  <si>
+    <t>8.4%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 1,65,605</t>
-  </si>
-  <si>
-    <t>₹ 2,45,755</t>
-  </si>
-  <si>
-    <t>₹ 19,56,621</t>
-  </si>
-  <si>
-    <t>25.03%</t>
+    <t>₹ 1,06,426</t>
+  </si>
+  <si>
+    <t>₹ 3,25,442</t>
+  </si>
+  <si>
+    <t>₹ 35,57,589</t>
+  </si>
+  <si>
+    <t>11.06%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 1,86,607</t>
-  </si>
-  <si>
-    <t>₹ 2,24,752</t>
-  </si>
-  <si>
-    <t>₹ 17,70,014</t>
-  </si>
-  <si>
-    <t>32.18%</t>
+    <t>₹ 1,16,410</t>
+  </si>
+  <si>
+    <t>₹ 3,15,459</t>
+  </si>
+  <si>
+    <t>₹ 34,41,179</t>
+  </si>
+  <si>
+    <t>13.97%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 2,10,274</t>
-  </si>
-  <si>
-    <t>₹ 2,01,086</t>
-  </si>
-  <si>
-    <t>₹ 15,59,740</t>
-  </si>
-  <si>
-    <t>40.24%</t>
+    <t>₹ 1,27,330</t>
+  </si>
+  <si>
+    <t>₹ 3,04,539</t>
+  </si>
+  <si>
+    <t>₹ 33,13,850</t>
+  </si>
+  <si>
+    <t>17.15%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 2,36,942</t>
-  </si>
-  <si>
-    <t>₹ 1,74,418</t>
-  </si>
-  <si>
-    <t>₹ 13,22,798</t>
-  </si>
-  <si>
-    <t>49.32%</t>
+    <t>₹ 1,39,274</t>
+  </si>
+  <si>
+    <t>₹ 2,92,594</t>
+  </si>
+  <si>
+    <t>₹ 31,74,576</t>
+  </si>
+  <si>
+    <t>20.64%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 2,66,992</t>
-  </si>
-  <si>
-    <t>₹ 1,44,368</t>
-  </si>
-  <si>
-    <t>₹ 10,55,806</t>
-  </si>
-  <si>
-    <t>59.55%</t>
+    <t>₹ 1,52,339</t>
+  </si>
+  <si>
+    <t>₹ 2,79,530</t>
+  </si>
+  <si>
+    <t>₹ 30,22,237</t>
+  </si>
+  <si>
+    <t>24.44%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 3,00,853</t>
-  </si>
-  <si>
-    <t>₹ 1,10,507</t>
-  </si>
-  <si>
-    <t>₹ 7,54,953</t>
-  </si>
-  <si>
-    <t>71.07%</t>
+    <t>₹ 1,66,629</t>
+  </si>
+  <si>
+    <t>₹ 2,65,239</t>
+  </si>
+  <si>
+    <t>₹ 28,55,608</t>
+  </si>
+  <si>
+    <t>28.61%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 3,39,009</t>
-  </si>
-  <si>
-    <t>₹ 72,351</t>
-  </si>
-  <si>
-    <t>₹ 4,15,944</t>
-  </si>
-  <si>
-    <t>84.06%</t>
+    <t>₹ 1,82,260</t>
+  </si>
+  <si>
+    <t>₹ 2,49,608</t>
+  </si>
+  <si>
+    <t>₹ 26,73,347</t>
+  </si>
+  <si>
+    <t>33.17%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 3,82,004</t>
-  </si>
-  <si>
-    <t>₹ 29,356</t>
-  </si>
-  <si>
-    <t>₹ 33,941</t>
-  </si>
-  <si>
-    <t>98.7%</t>
+    <t>₹ 1,99,358</t>
+  </si>
+  <si>
+    <t>₹ 2,32,511</t>
+  </si>
+  <si>
+    <t>₹ 24,73,990</t>
+  </si>
+  <si>
+    <t>38.15%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 339</t>
-  </si>
-  <si>
-    <t>₹ 3,125</t>
-  </si>
-  <si>
-    <t>₹ 37,405</t>
+    <t>₹ 2,18,059</t>
+  </si>
+  <si>
+    <t>₹ 2,13,810</t>
+  </si>
+  <si>
+    <t>₹ 22,55,931</t>
+  </si>
+  <si>
+    <t>43.6%</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>₹ 2,38,514</t>
+  </si>
+  <si>
+    <t>₹ 1,93,354</t>
+  </si>
+  <si>
+    <t>₹ 20,17,417</t>
+  </si>
+  <si>
+    <t>49.56%</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>₹ 2,60,888</t>
+  </si>
+  <si>
+    <t>₹ 1,70,980</t>
+  </si>
+  <si>
+    <t>₹ 17,56,528</t>
+  </si>
+  <si>
+    <t>56.09%</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>₹ 2,85,362</t>
+  </si>
+  <si>
+    <t>₹ 1,46,507</t>
+  </si>
+  <si>
+    <t>₹ 14,71,167</t>
+  </si>
+  <si>
+    <t>63.22%</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>₹ 3,12,130</t>
+  </si>
+  <si>
+    <t>₹ 1,19,738</t>
+  </si>
+  <si>
+    <t>₹ 11,59,037</t>
+  </si>
+  <si>
+    <t>71.02%</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>₹ 3,41,410</t>
+  </si>
+  <si>
+    <t>₹ 90,458</t>
+  </si>
+  <si>
+    <t>₹ 8,17,626</t>
+  </si>
+  <si>
+    <t>79.56%</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>₹ 3,73,437</t>
+  </si>
+  <si>
+    <t>₹ 58,431</t>
+  </si>
+  <si>
+    <t>₹ 4,44,189</t>
+  </si>
+  <si>
+    <t>88.9%</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>₹ 4,08,468</t>
+  </si>
+  <si>
+    <t>₹ 23,400</t>
+  </si>
+  <si>
+    <t>₹ 35,721</t>
+  </si>
+  <si>
+    <t>99.11%</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>₹ 268</t>
+  </si>
+  <si>
+    <t>₹ 3,750</t>
+  </si>
+  <si>
+    <t>₹ 39,739</t>
   </si>
   <si>
     <t>₹ 0</t>
@@ -266,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -553,22 +673,206 @@
         <v>64</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="G13" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="G13" t="s" s="0">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>69</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
